--- a/data/trans_camb/P24_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_5_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,25</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,22</t>
+          <t>-2,51; 3,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,19</t>
+          <t>-3,03; 3,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,53</t>
+          <t>-3,27; 2,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,16</t>
+          <t>-4,4; 2,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 2,07</t>
+          <t>0,82; 8,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,79</t>
+          <t>-4,92; 2,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 3,55</t>
+          <t>-5,71; 2,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 13,63</t>
+          <t>-1,04; 6,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,01</t>
+          <t>-4,08; 3,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,79</t>
+          <t>-1,64; 7,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 1,85</t>
+          <t>3,73; 12,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 9,74</t>
+          <t>-3,53; 5,92</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 2,28</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 4,21</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 2,1</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 3,9</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 9,02</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 2,94</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,02%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>-12,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,94%</t>
+          <t>62,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>-9,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,87%</t>
+          <t>-10,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-4,78%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-2,6%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>41,56%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 58,34</t>
+          <t>-25,21; 53,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 44,51</t>
+          <t>-31,28; 49,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,31; 33,91</t>
+          <t>-31,85; 37,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,8; 114,87</t>
+          <t>-43,91; 37,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 12,72</t>
+          <t>4,71; 147,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 39,11</t>
+          <t>-32,51; 21,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 20,78</t>
+          <t>-27,83; 12,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,39; 79,29</t>
+          <t>-5,05; 40,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 15,28</t>
+          <t>-19,49; 21,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 30,1</t>
+          <t>-8,1; 41,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 14,38</t>
+          <t>15,07; 69,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,05; 76,6</t>
+          <t>-11,39; 22,77</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-20,56; 17,53</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 33,5</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-19,72; 16,69</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; 30,42</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>17,67; 67,02</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; 14,62</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>5,16</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,17</t>
+          <t>-6,39; 0,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,56</t>
+          <t>-2,51; 5,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,47</t>
+          <t>-3,89; 3,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 7,9</t>
+          <t>-3,37; 4,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,55</t>
+          <t>-2,84; 6,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 4,98</t>
+          <t>-5,93; 5,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 12,17</t>
+          <t>-3,42; 6,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 15,18</t>
+          <t>-3,35; 5,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 1,64</t>
+          <t>2,44; 12,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,08</t>
+          <t>-0,35; 9,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,78</t>
+          <t>0,72; 15,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 9,09</t>
+          <t>-4,35; 13,16</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 2,5</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 4,24</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 7,12</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 6,1</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 8,77</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 7,5</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-42,74%</t>
+          <t>-39,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>-6,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,38%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-5,51%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>25,74%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,67%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,66; 9,36</t>
+          <t>-66,46; 12,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 95,01</t>
+          <t>-23,82; 84,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 56,01</t>
+          <t>-38,65; 59,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 125,84</t>
+          <t>-35,34; 80,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 33,27</t>
+          <t>-26,7; 94,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 30,04</t>
+          <t>-45,56; 72,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 73,91</t>
+          <t>-16,0; 37,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 88,2</t>
+          <t>-16,42; 34,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 14,07</t>
+          <t>10,53; 76,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 33,81</t>
+          <t>-1,7; 59,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 57,28</t>
+          <t>2,02; 70,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 73,66</t>
+          <t>-13,98; 59,7</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-24,92; 20,64</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-10,5; 35,43</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 59,58</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 50,12</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 60,21</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-14,07; 48,36</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,42</t>
+          <t>-7,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>-10,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-5,42</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,51</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-7,83</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-6,49</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-3,02</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-5,78</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-7,78</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-3,25</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-5,84</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-3,93</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,08; -1,37</t>
+          <t>-20,21; -0,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 3,16</t>
+          <t>-17,61; 2,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,1; -3,76</t>
+          <t>-22,93; -3,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-19,98; 2,42</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-13,88; 5,99</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 8,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 8,51</t>
+          <t>-17,58; 0,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-11,37; 7,46</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-11,27; 7,52</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,72; 7,01</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 0,15</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-11,73; 3,07</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-12,83; 0,01</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-14,98; -1,91</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-11,36; 2,49</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-13,37; -0,25</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-12,05; 2,91</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-68,47%</t>
+          <t>-62,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-34,02%</t>
+          <t>-35,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-81,73%</t>
+          <t>-81,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-44,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-18,34%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>-31,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-8,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,4%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-10,44%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-35,36%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-16,47%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-31,47%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-42,35%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-17,72%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-31,79%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-21,39%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-95,05; -0,94</t>
+          <t>-93,32; 1,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-82,5; 49,88</t>
+          <t>-79,72; 44,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -26,49</t>
+          <t>-100,0; -17,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-85,01; 42,98</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-49,19; 27,06</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 41,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 42,81</t>
+          <t>-60,1; 4,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-38,61; 36,14</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-37,9; 38,43</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-45,01; 33,52</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-61,88; 1,99</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-48,74; 21,31</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-56,25; 1,38</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-64,33; -11,71</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-47,07; 17,21</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-56,47; -0,58</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-50,67; 21,88</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>-1,21</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,24</t>
+          <t>-4,53; 0,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,43</t>
+          <t>-2,25; 2,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,9</t>
+          <t>-3,85; 0,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,71</t>
+          <t>-3,6; 1,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,09</t>
+          <t>1,0; 7,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,41</t>
+          <t>-4,16; 2,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,43</t>
+          <t>-4,22; 1,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 12,23</t>
+          <t>-1,37; 4,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 0,41</t>
+          <t>-0,75; 5,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,84</t>
+          <t>-0,36; 5,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,52</t>
+          <t>4,05; 11,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,83; 8,69</t>
+          <t>-2,09; 5,91</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; 0,44</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 3,02</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 2,45</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 3,08</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 8,09</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 3,49</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-22,13%</t>
+          <t>-21,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-15,16%</t>
+          <t>-15,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>-8,65%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-11,0%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>42,74%</t>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-10,73%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>37,01%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,15; 4,28</t>
+          <t>-43,64; 8,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 33,01</t>
+          <t>-21,72; 39,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 11,99</t>
+          <t>-36,73; 10,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,61; 92,35</t>
+          <t>-34,95; 24,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 11,8</t>
+          <t>9,8; 111,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 23,75</t>
+          <t>-28,76; 20,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 29,48</t>
+          <t>-20,67; 9,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,0; 67,19</t>
+          <t>-6,45; 23,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 3,44</t>
+          <t>-3,95; 28,49</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 21,52</t>
+          <t>-1,73; 32,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 18,88</t>
+          <t>17,4; 54,75</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>24,51; 65,31</t>
+          <t>-6,82; 22,48</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-23,61; 3,73</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 22,88</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 18,62</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 23,16</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>20,05; 56,38</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-9,48; 18,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
